--- a/Resources/Raleigh_Updated.xlsx
+++ b/Resources/Raleigh_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\group3_project4\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFE4CF4-3D71-4A45-B575-5E3CEBE73226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03DADA2-D13E-4845-9EB1-9762B72ACD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D2EA00D-AB0E-473C-9F4C-53E1CFEA71C6}"/>
+    <workbookView xWindow="2088" yWindow="1260" windowWidth="17280" windowHeight="8976" xr2:uid="{3D2EA00D-AB0E-473C-9F4C-53E1CFEA71C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>AirNow</t>
+  </si>
+  <si>
+    <t>AQI Category</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E9ABDA-55C0-4DE0-B62E-0EFE089850B2}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +465,7 @@
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +496,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -526,7 +532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -558,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -590,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -622,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44932</v>
       </c>
@@ -654,7 +660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44933</v>
       </c>
@@ -686,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44934</v>
       </c>
@@ -718,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44935</v>
       </c>
@@ -750,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44936</v>
       </c>
@@ -782,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44937</v>
       </c>
@@ -814,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44938</v>
       </c>
@@ -846,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44939</v>
       </c>
@@ -878,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44940</v>
       </c>
@@ -910,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44941</v>
       </c>
@@ -942,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44942</v>
       </c>
